--- a/hieu2.xlsx
+++ b/hieu2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86CA6CA-B142-4C12-8536-5F1835AC7BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C4C8F7-DA0D-44BF-A7A2-2CB616C9C9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="62775" yWindow="3825" windowWidth="17280" windowHeight="8910" xr2:uid="{6C4C9579-B2E3-41A3-A68E-24A5A4362215}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>tên</t>
   </si>
@@ -53,61 +53,25 @@
     <t>code</t>
   </si>
   <si>
-    <t>Mẫn Bá Tài</t>
-  </si>
-  <si>
-    <t>Nguyễn Quỳnh Nga</t>
-  </si>
-  <si>
-    <t>Văn Quốc Trầm</t>
-  </si>
-  <si>
-    <t>Huỳnh Hạ Vy</t>
-  </si>
-  <si>
-    <t>Phùng Văn Hảo</t>
-  </si>
-  <si>
-    <t>Vương Xuân Trung</t>
-  </si>
-  <si>
-    <t>Nguyễn Phương Diễm Ngọc</t>
-  </si>
-  <si>
     <t>Đặng Thị Yến Phương</t>
   </si>
   <si>
-    <t>Dương Thị Hồng Nhung</t>
-  </si>
-  <si>
-    <t>bichha_vuong@gmail.com</t>
-  </si>
-  <si>
-    <t>cattuong87@yahoo.com</t>
-  </si>
-  <si>
-    <t>truongphuc97@gmail.com</t>
-  </si>
-  <si>
-    <t>baokhanh59@hotmail.com</t>
-  </si>
-  <si>
-    <t>thanhhuyen_doan@gmail.com</t>
-  </si>
-  <si>
-    <t>quochung_pham82@yahoo.com</t>
-  </si>
-  <si>
-    <t>haccuc_vuong90@yahoo.com</t>
-  </si>
-  <si>
-    <t>xuannhien.trinh33@gmail.com</t>
-  </si>
-  <si>
-    <t>thuananh64@hotmail.com</t>
-  </si>
-  <si>
     <t>7Ac8U9fs4v</t>
+  </si>
+  <si>
+    <t>xuannhien.trinh34337@gmail.com</t>
+  </si>
+  <si>
+    <t>xuannhien.trinh34338@gmail.com</t>
+  </si>
+  <si>
+    <t>xuannhien.trinh34331@gmail.com</t>
+  </si>
+  <si>
+    <t>xuannhien.trinh34352@gmail.com</t>
+  </si>
+  <si>
+    <t>xuannhien.trinh343362@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -123,13 +87,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF212529"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -140,6 +97,14 @@
       <color rgb="FF081C36"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,18 +124,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7221C4-A439-4150-BE72-F93FB1073819}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -518,157 +485,96 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1111</v>
       </c>
-      <c r="D2" s="2">
-        <v>84522579063</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
+      <c r="D2" s="1">
+        <v>84734086912</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1111</v>
       </c>
-      <c r="D3" s="2">
-        <v>84159457442</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
+      <c r="D3" s="1">
+        <v>84734086912</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1111</v>
       </c>
-      <c r="D4" s="2">
-        <v>84802744113</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
+      <c r="D4" s="1">
+        <v>84734086912</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1111</v>
       </c>
-      <c r="D5" s="2">
-        <v>84181448355</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>23</v>
+      <c r="D5" s="1">
+        <v>84734086912</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1111</v>
       </c>
-      <c r="D6" s="2">
-        <v>84573518263</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>1111</v>
-      </c>
-      <c r="D7" s="2">
-        <v>84825109520</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>1111</v>
-      </c>
-      <c r="D8" s="2">
-        <v>84117252197</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>1111</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D6" s="1">
         <v>84734086912</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>1111</v>
-      </c>
-      <c r="D10" s="2">
-        <v>84615225277</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7EAD2D1F-1301-4194-B909-81D0D7376303}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0ADCC994-886F-40A6-8E09-7BBF3F80B9A4}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{3880D591-ADDA-4398-82B8-20D152538099}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{021B643F-6892-498A-B3E2-65B78C771381}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{32E28D20-4072-49B5-9042-91E1DBAAD320}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>